--- a/Reusable_components.xlsx
+++ b/Reusable_components.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/817840_cognizant_com/Documents/Documents/GitHub/Cencora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_F25DC773A252ABDACC1048DDD91A7D2A5ADE5905" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F2BB554-D958-4E58-99AE-2DE02A160515}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC1048DDD91A7D2A5ADE5905" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85838DFC-4255-40ED-8ECE-A18A90EEBB7B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Sno</t>
   </si>
@@ -39,18 +50,27 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Bing News</t>
   </si>
   <si>
+    <t>Extraction</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Becker Hospital</t>
+  </si>
+  <si>
     <t>HIMSS</t>
   </si>
   <si>
     <t>Advisory</t>
   </si>
   <si>
-    <t>Becker Hospital</t>
-  </si>
-  <si>
     <t>Bloomberg</t>
   </si>
   <si>
@@ -60,12 +80,15 @@
     <t>DrugChannel</t>
   </si>
   <si>
+    <t>Generic Webscraper</t>
+  </si>
+  <si>
+    <t>CosmosDB</t>
+  </si>
+  <si>
     <t>AzureAI Search</t>
   </si>
   <si>
-    <t>CosmosDB</t>
-  </si>
-  <si>
     <t>LLM summarization</t>
   </si>
   <si>
@@ -88,19 +111,13 @@
   </si>
   <si>
     <t>ChatBot</t>
-  </si>
-  <si>
-    <t>Extraction</t>
-  </si>
-  <si>
-    <t>Generic Webscraper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,12 +126,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,8 +152,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,22 +436,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="3.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,173 +465,215 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>7.1</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
